--- a/data/trans_bre/BARTHEL_R2-Clase-trans_bre.xlsx
+++ b/data/trans_bre/BARTHEL_R2-Clase-trans_bre.xlsx
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-16,06; 7,14</t>
+          <t>-15,56; 7,63</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-17,5; 14,05</t>
+          <t>-17,53; 13,99</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-17,84; 5,81</t>
+          <t>-16,43; 6,24</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-8,56; 3,3</t>
+          <t>-7,46; 3,33</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-16,73; 7,79</t>
+          <t>-16,07; 8,34</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-18,13; 16,12</t>
+          <t>-18,46; 16,37</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-18,33; 6,26</t>
+          <t>-17,1; 6,48</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-9,07; 3,62</t>
+          <t>-7,74; 3,61</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-46,07; -2,33</t>
+          <t>-44,63; -2,31</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-35,85; 7,72</t>
+          <t>-32,68; 8,7</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-45,54; 7,78</t>
+          <t>-49,0; 7,98</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-14,51; 2,43</t>
+          <t>-15,46; 1,95</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-46,64; -2,6</t>
+          <t>-44,59; -1,98</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-37,86; 9,14</t>
+          <t>-35,32; 9,7</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-50,28; 9,0</t>
+          <t>-55,5; 9,38</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-15,31; 2,56</t>
+          <t>-16,9; 2,03</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-31,22; 3,02</t>
+          <t>-32,09; 4,77</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-27,09; -1,54</t>
+          <t>-25,65; -1,12</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-20,66; 4,02</t>
+          <t>-21,44; 3,84</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-16,35; 1,45</t>
+          <t>-16,84; 1,6</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-34,09; 3,3</t>
+          <t>-34,33; 5,1</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-29,25; -1,86</t>
+          <t>-27,83; -1,4</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-22,76; 4,5</t>
+          <t>-23,06; 4,15</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-18,66; 1,7</t>
+          <t>-18,79; 1,73</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-8,37; 6,05</t>
+          <t>-7,57; 5,79</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-15,34; 9,68</t>
+          <t>-15,16; 9,18</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-21,75; -1,85</t>
+          <t>-20,71; -1,62</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-0,15; 20,21</t>
+          <t>0,17; 22,47</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-8,84; 6,88</t>
+          <t>-8,27; 6,54</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-18,43; 13,13</t>
+          <t>-18,69; 11,97</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-23,95; -2,07</t>
+          <t>-23,1; -1,94</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-0,15; 26,2</t>
+          <t>0,28; 30,02</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-17,18; 7,53</t>
+          <t>-17,17; 8,12</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-27,35; -7,84</t>
+          <t>-28,02; -7,92</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-12,66; 5,9</t>
+          <t>-13,2; 5,51</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-20,53; -6,78</t>
+          <t>-20,43; -6,93</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-19,06; 8,83</t>
+          <t>-18,84; 9,8</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-31,35; -10,36</t>
+          <t>-31,72; -10,16</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-15,17; 7,56</t>
+          <t>-15,47; 7,27</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-22,99; -8,63</t>
+          <t>-23,06; -8,96</t>
         </is>
       </c>
     </row>
@@ -1168,12 +1168,12 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-16,61; -9,8</t>
+          <t>-16,56; -9,85</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-29,3; -20,44</t>
+          <t>-29,45; -20,31</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
@@ -1183,17 +1183,17 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-26,82; 56,35</t>
+          <t>-26,45; 44,24</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-16,61; -9,8</t>
+          <t>-16,56; -9,85</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-29,3; -20,44</t>
+          <t>-29,45; -20,31</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
@@ -1203,7 +1203,7 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-26,82; 327,32</t>
+          <t>-26,45; 142,06</t>
         </is>
       </c>
     </row>
@@ -1268,42 +1268,42 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-9,2; -2,26</t>
+          <t>-9,05; -1,95</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-15,42; -6,48</t>
+          <t>-15,7; -5,96</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-14,18; -5,8</t>
+          <t>-14,6; -5,89</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-10,73; 3,3</t>
+          <t>-10,72; 3,42</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-9,85; -2,5</t>
+          <t>-9,71; -2,26</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-17,73; -7,82</t>
+          <t>-17,93; -7,3</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-15,85; -6,65</t>
+          <t>-16,23; -6,74</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-12,26; 3,88</t>
+          <t>-12,31; 3,97</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/BARTHEL_R2-Clase-trans_bre.xlsx
+++ b/data/trans_bre/BARTHEL_R2-Clase-trans_bre.xlsx
@@ -1110,7 +1110,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
